--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -25,6 +25,9 @@
     <t>ROWS</t>
   </si>
   <si>
+    <t>GEN_ORDER</t>
+  </si>
+  <si>
     <t>COLUMN_ORDER</t>
   </si>
   <si>
@@ -37,22 +40,43 @@
     <t>LIFNR, BU_GROUP, KTOKK, NAME_FIRST, NAME_FIRST_P, NAME_LAST_P, BPEXT, STREET, POST_CODE1, CITY1, COUNTRY, REGION, LANGU_CORR, TELNR_LONG, SMTP_ADDR</t>
   </si>
   <si>
+    <t>S_LFA1_TEXT</t>
+  </si>
+  <si>
+    <t>LIFNR,TDSPRAS</t>
+  </si>
+  <si>
+    <t>S_SUPPL_ADDR</t>
+  </si>
+  <si>
+    <t>LIFNR</t>
+  </si>
+  <si>
+    <t>S_LFM1_TEXT</t>
+  </si>
+  <si>
+    <t>S_SUPPL_WITH_TAX</t>
+  </si>
+  <si>
+    <t>LIFNR,BUKRS</t>
+  </si>
+  <si>
     <t>S_ROLES</t>
   </si>
   <si>
-    <t>S_LFA1_TEXT</t>
-  </si>
-  <si>
-    <t>S_LFM1_TEXT</t>
-  </si>
-  <si>
-    <t>S_SUPPL_ADDR</t>
-  </si>
-  <si>
-    <t>S_SUPPL_WITH_TAX</t>
+    <t>LIFNR,BP_ROLE</t>
   </si>
   <si>
     <t>S_ADDR_USAGE</t>
+  </si>
+  <si>
+    <t>LIFNR, ADR_KIND</t>
+  </si>
+  <si>
+    <t>S_SUPPL_PARTNER</t>
+  </si>
+  <si>
+    <t>LIFNR,EKORG,PARVW,LIFN2,DEFPA</t>
   </si>
 </sst>
 </file>
@@ -132,11 +156,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -452,16 +476,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="108.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -474,95 +499,155 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>LIFNR,EKORG,PARVW,LIFN2,DEFPA</t>
+  </si>
+  <si>
+    <t>S_SUPPL_COMPANY</t>
+  </si>
+  <si>
+    <t>LIFNR,BUKRS,AKONT,ZTERM1,ZWELS_01</t>
+  </si>
+  <si>
+    <t>S_SUPP_BANK</t>
+  </si>
+  <si>
+    <t>LIFNR,BANKS,BANKL,BANKN,IBAN,BKONT,BKREF,KOINH,EBPP_ACCNAME</t>
+  </si>
+  <si>
+    <t>S_SUPPL_PURCHASING</t>
+  </si>
+  <si>
+    <t>LIFNR,EKORG,WAERS,ZTERM,INCO1,INCO2,KALKS,VSBED,WEBRE,KZAUT,BSTAE,KZRET</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +181,12 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -476,17 +500,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="108.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="108.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -642,12 +666,56 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>LIFNR,EKORG,WAERS,ZTERM,INCO1,INCO2,KALKS,VSBED,WEBRE,KZAUT,BSTAE,KZRET</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>S_EQUI</t>
+  </si>
+  <si>
+    <t>EQUNR,NRANGE_IND,EQTYP,DATAB,EQKTX,BRGEW,GEWEI,MATNR,GERNR</t>
+  </si>
+  <si>
+    <t>S_IHPA</t>
+  </si>
+  <si>
+    <t>EQUNR,PARVW</t>
+  </si>
+  <si>
+    <t>S_TEXTS_EQUI</t>
+  </si>
+  <si>
+    <t>EQUNR,SPRAS,TEXT_DESCR</t>
   </si>
 </sst>
 </file>
@@ -102,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +141,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -183,10 +210,10 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -500,13 +527,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="28.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="108.57642857142856" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -666,37 +693,37 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -716,6 +743,64 @@
       <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -97,25 +97,10 @@
     <t>LIFNR,EKORG,WAERS,ZTERM,INCO1,INCO2,KALKS,VSBED,WEBRE,KZAUT,BSTAE,KZRET</t>
   </si>
   <si>
-    <t>equipment</t>
-  </si>
-  <si>
-    <t>S_EQUI</t>
-  </si>
-  <si>
-    <t>EQUNR,NRANGE_IND,EQTYP,DATAB,EQKTX,BRGEW,GEWEI,MATNR,GERNR</t>
-  </si>
-  <si>
-    <t>S_IHPA</t>
-  </si>
-  <si>
-    <t>EQUNR,PARVW</t>
-  </si>
-  <si>
-    <t>S_TEXTS_EQUI</t>
-  </si>
-  <si>
-    <t>EQUNR,SPRAS,TEXT_DESCR</t>
+    <t>S_SUPPL_TAXNUMBERS</t>
+  </si>
+  <si>
+    <t>TAXTYPE,TAXNUM</t>
   </si>
 </sst>
 </file>
@@ -123,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,12 +126,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -193,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,12 +187,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -533,11 +506,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="108.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -565,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -582,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -599,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -616,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -633,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -650,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
@@ -667,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -684,7 +657,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -701,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
@@ -718,7 +691,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -735,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -744,56 +717,36 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -40,27 +40,57 @@
     <t>LIFNR, BU_GROUP, KTOKK, NAME_FIRST, NAME_FIRST_P, NAME_LAST_P, BPEXT, STREET, POST_CODE1, CITY1, COUNTRY, REGION, LANGU_CORR, TELNR_LONG, SMTP_ADDR</t>
   </si>
   <si>
+    <t>S_SUPPL_ADDR</t>
+  </si>
+  <si>
+    <t>LIFNR</t>
+  </si>
+  <si>
+    <t>S_SUPPL_COMPANY</t>
+  </si>
+  <si>
+    <t>LIFNR,BUKRS,AKONT,ZTERM1,ZWELS_01</t>
+  </si>
+  <si>
+    <t>S_SUPPL_PURCHASING</t>
+  </si>
+  <si>
+    <t>LIFNR,EKORG,WAERS,ZTERM,INCO1,INCO2,KALKS,VSBED,WEBRE,KZAUT,BSTAE,KZRET</t>
+  </si>
+  <si>
+    <t>S_SUPP_BANK</t>
+  </si>
+  <si>
+    <t>LIFNR,BANKS,BANKL,BANKN,IBAN,BKONT,BKREF,KOINH,EBPP_ACCNAME</t>
+  </si>
+  <si>
+    <t>S_SUPPL_PARTNER</t>
+  </si>
+  <si>
+    <t>LIFNR,EKORG,PARVW,LIFN2,DEFPA</t>
+  </si>
+  <si>
+    <t>S_SUPPL_TAXNUMBERS</t>
+  </si>
+  <si>
+    <t>TAXTYPE,TAXNUM</t>
+  </si>
+  <si>
+    <t>S_SUPPL_WITH_TAX</t>
+  </si>
+  <si>
+    <t>LIFNR,BUKRS</t>
+  </si>
+  <si>
     <t>S_LFA1_TEXT</t>
   </si>
   <si>
     <t>LIFNR,TDSPRAS</t>
   </si>
   <si>
-    <t>S_SUPPL_ADDR</t>
-  </si>
-  <si>
-    <t>LIFNR</t>
-  </si>
-  <si>
     <t>S_LFM1_TEXT</t>
   </si>
   <si>
-    <t>S_SUPPL_WITH_TAX</t>
-  </si>
-  <si>
-    <t>LIFNR,BUKRS</t>
-  </si>
-  <si>
     <t>S_ROLES</t>
   </si>
   <si>
@@ -70,31 +100,7 @@
     <t>S_ADDR_USAGE</t>
   </si>
   <si>
-    <t>LIFNR, ADR_KIND</t>
-  </si>
-  <si>
-    <t>S_SUPPL_PARTNER</t>
-  </si>
-  <si>
-    <t>LIFNR,EKORG,PARVW,LIFN2,DEFPA</t>
-  </si>
-  <si>
-    <t>S_SUPPL_COMPANY</t>
-  </si>
-  <si>
-    <t>LIFNR,BUKRS,AKONT,ZTERM1,ZWELS_01</t>
-  </si>
-  <si>
-    <t>S_SUPP_BANK</t>
-  </si>
-  <si>
-    <t>LIFNR,BANKS,BANKL,BANKN,IBAN,BKONT,BKREF,KOINH,EBPP_ACCNAME</t>
-  </si>
-  <si>
-    <t>S_SUPPL_PURCHASING</t>
-  </si>
-  <si>
-    <t>LIFNR,EKORG,WAERS,ZTERM,INCO1,INCO2,KALKS,VSBED,WEBRE,KZAUT,BSTAE,KZRET</t>
+    <t>LIFNR,ADR_KIND</t>
   </si>
   <si>
     <t>equipment</t>
@@ -123,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,12 +147,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,12 +208,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -527,17 +521,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="108.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -565,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -574,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -582,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -591,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -599,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -616,13 +610,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -630,16 +624,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -647,16 +641,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -664,16 +658,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -681,16 +675,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -698,16 +692,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -715,16 +709,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -735,7 +729,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -744,63 +738,80 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="6">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="3">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="3">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>S_EQUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,000
+</t>
   </si>
   <si>
     <t>EQUNR,NRANGE_IND,EQTYP,DATAB,EQKTX,BRGEW,GEWEI,MATNR,GERNR</t>
@@ -559,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -568,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -576,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -585,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -593,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -610,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -627,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -644,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
@@ -661,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -678,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -695,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
@@ -712,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -729,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -746,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
@@ -755,55 +759,55 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3">
-        <v>100</v>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D15" s="3">
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="D16" s="3">
         <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -31,101 +31,16 @@
     <t>COLUMN_ORDER</t>
   </si>
   <si>
-    <t>vendor</t>
-  </si>
-  <si>
-    <t>S_SUPPL_GEN</t>
-  </si>
-  <si>
-    <t>LIFNR, BU_GROUP, KTOKK, NAME_FIRST, NAME_FIRST_P, NAME_LAST_P, BPEXT, STREET, POST_CODE1, CITY1, COUNTRY, REGION, LANGU_CORR, TELNR_LONG, SMTP_ADDR</t>
-  </si>
-  <si>
-    <t>S_SUPPL_ADDR</t>
-  </si>
-  <si>
-    <t>LIFNR</t>
-  </si>
-  <si>
-    <t>S_SUPPL_COMPANY</t>
-  </si>
-  <si>
-    <t>LIFNR,BUKRS,AKONT,ZTERM1,ZWELS_01</t>
-  </si>
-  <si>
-    <t>S_SUPPL_PURCHASING</t>
-  </si>
-  <si>
-    <t>LIFNR,EKORG,WAERS,ZTERM,INCO1,INCO2,KALKS,VSBED,WEBRE,KZAUT,BSTAE,KZRET</t>
-  </si>
-  <si>
-    <t>S_SUPP_BANK</t>
-  </si>
-  <si>
-    <t>LIFNR,BANKS,BANKL,BANKN,IBAN,BKONT,BKREF,KOINH,EBPP_ACCNAME</t>
-  </si>
-  <si>
-    <t>S_SUPPL_PARTNER</t>
-  </si>
-  <si>
-    <t>LIFNR,EKORG,PARVW,LIFN2,DEFPA</t>
-  </si>
-  <si>
-    <t>S_SUPPL_TAXNUMBERS</t>
-  </si>
-  <si>
-    <t>TAXTYPE,TAXNUM</t>
-  </si>
-  <si>
-    <t>S_SUPPL_WITH_TAX</t>
-  </si>
-  <si>
-    <t>LIFNR,BUKRS</t>
-  </si>
-  <si>
-    <t>S_LFA1_TEXT</t>
-  </si>
-  <si>
-    <t>LIFNR,TDSPRAS</t>
-  </si>
-  <si>
-    <t>S_LFM1_TEXT</t>
-  </si>
-  <si>
-    <t>S_ROLES</t>
-  </si>
-  <si>
-    <t>LIFNR,BP_ROLE</t>
-  </si>
-  <si>
-    <t>S_ADDR_USAGE</t>
-  </si>
-  <si>
-    <t>LIFNR,ADR_KIND</t>
-  </si>
-  <si>
-    <t>equipment</t>
-  </si>
-  <si>
-    <t>S_EQUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,000
-</t>
-  </si>
-  <si>
-    <t>EQUNR,NRANGE_IND,EQTYP,DATAB,EQKTX,BRGEW,GEWEI,MATNR,GERNR</t>
-  </si>
-  <si>
-    <t>S_IHPA</t>
-  </si>
-  <si>
-    <t>EQUNR,PARVW</t>
-  </si>
-  <si>
-    <t>S_TEXTS_EQUI</t>
-  </si>
-  <si>
-    <t>EQUNR,SPRAS,TEXT_DESCR</t>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>S_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>PERNR</t>
+  </si>
+  <si>
+    <t>S_PA0000</t>
   </si>
 </sst>
 </file>
@@ -563,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>40000</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -580,235 +495,103 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>40000</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -41,6 +41,39 @@
   </si>
   <si>
     <t>S_PA0000</t>
+  </si>
+  <si>
+    <t>S_PA0001</t>
+  </si>
+  <si>
+    <t>S_HRP1001</t>
+  </si>
+  <si>
+    <t>OTYPE,OBJID,BEGDA,ENDDA,SCLAS,SOBID,RSIGN,RELAT,PRIOX,PROZT</t>
+  </si>
+  <si>
+    <t>S_INFOTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>INFTY,SUBTY,ENDDA,BEGDA</t>
+  </si>
+  <si>
+    <t>S_PA0006</t>
+  </si>
+  <si>
+    <t>SUBTY,ENDDA,BEGDA,ANSSA,STRAS,ORT01,ORT02,PSTLZ,LAND1,LOCAT,ADR03,ADR04,STATE,HSNMR,BLDNG,FLOOR,STRDS,COUNC,RCTVC,COM01,NUM01,COM02,NUM02,COM03,NUM03,COM04,NUM04,COM05,NUM05,COM06,NUM06</t>
+  </si>
+  <si>
+    <t>S_PA0105</t>
+  </si>
+  <si>
+    <t>PERNR,SUBTY,ENDDA,BEGDA,USRTY</t>
+  </si>
+  <si>
+    <t>S_PA0002</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,INITS,NACHN,NACH2,VORNA,TITEL,MIDNM,GESCH,GBDAT,NATIO,SPRSL,FAMST</t>
   </si>
 </sst>
 </file>
@@ -453,7 +486,7 @@
     <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -478,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -487,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -495,105 +528,163 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -41,39 +41,6 @@
   </si>
   <si>
     <t>S_PA0000</t>
-  </si>
-  <si>
-    <t>S_PA0001</t>
-  </si>
-  <si>
-    <t>S_HRP1001</t>
-  </si>
-  <si>
-    <t>OTYPE,OBJID,BEGDA,ENDDA,SCLAS,SOBID,RSIGN,RELAT,PRIOX,PROZT</t>
-  </si>
-  <si>
-    <t>S_INFOTYPE_TEXT</t>
-  </si>
-  <si>
-    <t>INFTY,SUBTY,ENDDA,BEGDA</t>
-  </si>
-  <si>
-    <t>S_PA0006</t>
-  </si>
-  <si>
-    <t>SUBTY,ENDDA,BEGDA,ANSSA,STRAS,ORT01,ORT02,PSTLZ,LAND1,LOCAT,ADR03,ADR04,STATE,HSNMR,BLDNG,FLOOR,STRDS,COUNC,RCTVC,COM01,NUM01,COM02,NUM02,COM03,NUM03,COM04,NUM04,COM05,NUM05,COM06,NUM06</t>
-  </si>
-  <si>
-    <t>S_PA0105</t>
-  </si>
-  <si>
-    <t>PERNR,SUBTY,ENDDA,BEGDA,USRTY</t>
-  </si>
-  <si>
-    <t>S_PA0002</t>
-  </si>
-  <si>
-    <t>PERNR,ENDDA,BEGDA,INITS,NACHN,NACH2,VORNA,TITEL,MIDNM,GESCH,GBDAT,NATIO,SPRSL,FAMST</t>
   </si>
 </sst>
 </file>
@@ -511,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -528,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>20000</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -536,104 +503,46 @@
       <c r="E3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -41,6 +41,45 @@
   </si>
   <si>
     <t>S_PA0000</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,MASSN,MASSG,STAT2</t>
+  </si>
+  <si>
+    <t>S_PA0001</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,BUKRS,WERKS,VDSK1,BTRTL,KOSTL,KOKRS,PERSG,PERSK,ORGEH,OTYPE,MSTBR</t>
+  </si>
+  <si>
+    <t>S_PA0002</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,INITS,NACHN,NACH2,VORNA,TITEL,MIDNM,SPRSL</t>
+  </si>
+  <si>
+    <t>S_PA0006</t>
+  </si>
+  <si>
+    <t>SUBTY,ENDDA,BEGDA,ANSSA,STRAS,ORT01,ORT02,PSTLZ,LAND1,LOCAT,ADR03,ADR04,STATE,HSNMR,BLDNG,FLOOR,STRDS,COUNC,RCTVC,COM01,NUM01,COM02,NUM02,COM03,NUM03,COM04,NUM04,COM05,NUM05,COM06,NUM06</t>
+  </si>
+  <si>
+    <t>S_PA0105</t>
+  </si>
+  <si>
+    <t>PERNR,SUBTY,ENDDA,BEGDA,USRTY</t>
+  </si>
+  <si>
+    <t>S_INFOTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>INFTY,SUBTY,ENDDA,BEGDA</t>
+  </si>
+  <si>
+    <t>S_HRP1001</t>
+  </si>
+  <si>
+    <t>OTYPE,OBJID,BEGDA,ENDDA,SCLAS,SOBID,RSIGN,RELAT,PRIOX,PROZT</t>
   </si>
 </sst>
 </file>
@@ -440,7 +479,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -478,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -500,49 +539,111 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4"/>
@@ -551,55 +652,6 @@
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -31,55 +31,40 @@
     <t>COLUMN_ORDER</t>
   </si>
   <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>S_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>PERNR</t>
-  </si>
-  <si>
-    <t>S_PA0000</t>
-  </si>
-  <si>
-    <t>PERNR,ENDDA,BEGDA,MASSN,MASSG,STAT2</t>
-  </si>
-  <si>
-    <t>S_PA0001</t>
-  </si>
-  <si>
-    <t>PERNR,ENDDA,BEGDA,BUKRS,WERKS,VDSK1,BTRTL,KOSTL,KOKRS,PERSG,PERSK,ORGEH,OTYPE,MSTBR</t>
-  </si>
-  <si>
-    <t>S_PA0002</t>
-  </si>
-  <si>
-    <t>PERNR,ENDDA,BEGDA,INITS,NACHN,NACH2,VORNA,TITEL,MIDNM,SPRSL</t>
-  </si>
-  <si>
-    <t>S_PA0006</t>
-  </si>
-  <si>
-    <t>SUBTY,ENDDA,BEGDA,ANSSA,STRAS,ORT01,ORT02,PSTLZ,LAND1,LOCAT,ADR03,ADR04,STATE,HSNMR,BLDNG,FLOOR,STRDS,COUNC,RCTVC,COM01,NUM01,COM02,NUM02,COM03,NUM03,COM04,NUM04,COM05,NUM05,COM06,NUM06</t>
-  </si>
-  <si>
-    <t>S_PA0105</t>
-  </si>
-  <si>
-    <t>PERNR,SUBTY,ENDDA,BEGDA,USRTY</t>
-  </si>
-  <si>
-    <t>S_INFOTYPE_TEXT</t>
-  </si>
-  <si>
-    <t>INFTY,SUBTY,ENDDA,BEGDA</t>
-  </si>
-  <si>
-    <t>S_HRP1001</t>
-  </si>
-  <si>
-    <t>OTYPE,OBJID,BEGDA,ENDDA,SCLAS,SOBID,RSIGN,RELAT,PRIOX,PROZT</t>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>S_CUST_GEN</t>
+  </si>
+  <si>
+    <t>S_CUST_SALES_DATA</t>
+  </si>
+  <si>
+    <t>S_CUST_SALES_PARTNER</t>
+  </si>
+  <si>
+    <t>S_CUST_COMPANY</t>
+  </si>
+  <si>
+    <t>S_CUST_BANK_DATA</t>
+  </si>
+  <si>
+    <t>S_CUST_CC_DATA</t>
+  </si>
+  <si>
+    <t>S_CUST_INDUSTRY</t>
+  </si>
+  <si>
+    <t>S_CUST_TAXCLASS</t>
+  </si>
+  <si>
+    <t>S_CUST_TAXNUMBERS</t>
+  </si>
+  <si>
+    <t>S_CUST_IDENT</t>
+  </si>
+  <si>
+    <t>S_CUST_CONT</t>
   </si>
 </sst>
 </file>
@@ -87,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +90,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -151,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,6 +157,12 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -479,20 +476,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -517,21 +514,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>20000</v>
@@ -539,16 +534,14 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="E3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>20000</v>
@@ -556,16 +549,14 @@
       <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="E4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>20000</v>
@@ -573,84 +564,112 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C10" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C11" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="C12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -31,40 +31,52 @@
     <t>COLUMN_ORDER</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>S_CUST_GEN</t>
-  </si>
-  <si>
-    <t>S_CUST_SALES_DATA</t>
-  </si>
-  <si>
-    <t>S_CUST_SALES_PARTNER</t>
-  </si>
-  <si>
-    <t>S_CUST_COMPANY</t>
-  </si>
-  <si>
-    <t>S_CUST_BANK_DATA</t>
-  </si>
-  <si>
-    <t>S_CUST_CC_DATA</t>
-  </si>
-  <si>
-    <t>S_CUST_INDUSTRY</t>
-  </si>
-  <si>
-    <t>S_CUST_TAXCLASS</t>
-  </si>
-  <si>
-    <t>S_CUST_TAXNUMBERS</t>
-  </si>
-  <si>
-    <t>S_CUST_IDENT</t>
-  </si>
-  <si>
-    <t>S_CUST_CONT</t>
+    <t>material</t>
+  </si>
+  <si>
+    <t>S_MARA</t>
+  </si>
+  <si>
+    <t>S_MAKT</t>
+  </si>
+  <si>
+    <t>S_MARM</t>
+  </si>
+  <si>
+    <t>S_MEAN</t>
+  </si>
+  <si>
+    <t>S_MVKE</t>
+  </si>
+  <si>
+    <t>S_MLAN</t>
+  </si>
+  <si>
+    <t>S_MARC</t>
+  </si>
+  <si>
+    <t>S_MARD</t>
+  </si>
+  <si>
+    <t>S_MRP_AREA</t>
+  </si>
+  <si>
+    <t>S_MLGN</t>
+  </si>
+  <si>
+    <t>S_MLGT</t>
+  </si>
+  <si>
+    <t>S_MBEW</t>
+  </si>
+  <si>
+    <t>S_MBEW_CURRENT</t>
+  </si>
+  <si>
+    <t>S_MBEW_FUTURE</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -72,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +102,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -150,20 +156,20 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -476,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -485,11 +491,11 @@
     <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,170 +512,198 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="C2" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="C4" s="5">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="C5" s="5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="C7" s="5">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="C8" s="5">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="C10" s="5">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="C11" s="5">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="C12" s="5">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -76,7 +76,10 @@
     <t>S_MBEW_FUTURE</t>
   </si>
   <si>
-    <t/>
+    <t>SAPAPO_MATLSP</t>
+  </si>
+  <si>
+    <t>MARC</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,9 +170,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -482,20 +482,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -520,12 +520,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -533,12 +533,12 @@
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -546,12 +546,12 @@
         <v>8</v>
       </c>
       <c r="C4" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -559,12 +559,12 @@
         <v>9</v>
       </c>
       <c r="C5" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -572,12 +572,12 @@
         <v>10</v>
       </c>
       <c r="C6" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -585,12 +585,12 @@
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -598,12 +598,12 @@
         <v>12</v>
       </c>
       <c r="C8" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -611,12 +611,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -624,12 +624,12 @@
         <v>14</v>
       </c>
       <c r="C10" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -637,12 +637,12 @@
         <v>15</v>
       </c>
       <c r="C11" s="5">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -650,12 +650,12 @@
         <v>16</v>
       </c>
       <c r="C12" s="5">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -663,12 +663,12 @@
         <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+        <v>20000</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -676,12 +676,12 @@
         <v>18</v>
       </c>
       <c r="C14" s="5">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+        <v>20000</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -689,21 +689,36 @@
         <v>19</v>
       </c>
       <c r="C15" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -31,55 +31,52 @@
     <t>COLUMN_ORDER</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>S_MARA</t>
-  </si>
-  <si>
-    <t>S_MAKT</t>
-  </si>
-  <si>
-    <t>S_MARM</t>
-  </si>
-  <si>
-    <t>S_MEAN</t>
-  </si>
-  <si>
-    <t>S_MVKE</t>
-  </si>
-  <si>
-    <t>S_MLAN</t>
-  </si>
-  <si>
-    <t>S_MARC</t>
-  </si>
-  <si>
-    <t>S_MARD</t>
-  </si>
-  <si>
-    <t>S_MRP_AREA</t>
-  </si>
-  <si>
-    <t>S_MLGN</t>
-  </si>
-  <si>
-    <t>S_MLGT</t>
-  </si>
-  <si>
-    <t>S_MBEW</t>
-  </si>
-  <si>
-    <t>S_MBEW_CURRENT</t>
-  </si>
-  <si>
-    <t>S_MBEW_FUTURE</t>
-  </si>
-  <si>
-    <t>SAPAPO_MATLSP</t>
-  </si>
-  <si>
-    <t>MARC</t>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>S_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>PERNR</t>
+  </si>
+  <si>
+    <t>S_PA0000</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,MASSN,MASSG,STAT2</t>
+  </si>
+  <si>
+    <t>S_PA0001</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,BUKRS,WERKS,VDSK1,BTRTL,KOSTL,KOKRS,PERSG,PERSK,ORGEH,OTYPE,MSTBR</t>
+  </si>
+  <si>
+    <t>S_PA0002</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,INITS,NACHN,NACH2,VORNA,TITEL,MIDNM,SPRSL</t>
+  </si>
+  <si>
+    <t>S_PA0006</t>
+  </si>
+  <si>
+    <t>SUBTY,ENDDA,BEGDA,ANSSA,STRAS,ORT01,ORT02,PSTLZ,LAND1,LOCAT,ADR03,ADR04,STATE,HSNMR,BLDNG,FLOOR,STRDS,COUNC,RCTVC,COM01,NUM01,COM02,NUM02,COM03,NUM03,COM04,NUM04,COM05,NUM05,COM06,NUM06</t>
+  </si>
+  <si>
+    <t>S_PA0105</t>
+  </si>
+  <si>
+    <t>PERNR,SUBTY,ENDDA,BEGDA,USRTY</t>
+  </si>
+  <si>
+    <t>S_INFOTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>INFTY,SUBTY,ENDDA,BEGDA</t>
+  </si>
+  <si>
+    <t>S_HRP1001</t>
   </si>
 </sst>
 </file>
@@ -151,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,16 +156,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -482,17 +476,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -519,206 +513,181 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5">
-        <v>20000</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5">
-        <v>20000</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5">
-        <v>20000</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5">
-        <v>20000</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -31,52 +31,55 @@
     <t>COLUMN_ORDER</t>
   </si>
   <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>S_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>PERNR</t>
-  </si>
-  <si>
-    <t>S_PA0000</t>
-  </si>
-  <si>
-    <t>PERNR,ENDDA,BEGDA,MASSN,MASSG,STAT2</t>
-  </si>
-  <si>
-    <t>S_PA0001</t>
-  </si>
-  <si>
-    <t>PERNR,ENDDA,BEGDA,BUKRS,WERKS,VDSK1,BTRTL,KOSTL,KOKRS,PERSG,PERSK,ORGEH,OTYPE,MSTBR</t>
-  </si>
-  <si>
-    <t>S_PA0002</t>
-  </si>
-  <si>
-    <t>PERNR,ENDDA,BEGDA,INITS,NACHN,NACH2,VORNA,TITEL,MIDNM,SPRSL</t>
-  </si>
-  <si>
-    <t>S_PA0006</t>
-  </si>
-  <si>
-    <t>SUBTY,ENDDA,BEGDA,ANSSA,STRAS,ORT01,ORT02,PSTLZ,LAND1,LOCAT,ADR03,ADR04,STATE,HSNMR,BLDNG,FLOOR,STRDS,COUNC,RCTVC,COM01,NUM01,COM02,NUM02,COM03,NUM03,COM04,NUM04,COM05,NUM05,COM06,NUM06</t>
-  </si>
-  <si>
-    <t>S_PA0105</t>
-  </si>
-  <si>
-    <t>PERNR,SUBTY,ENDDA,BEGDA,USRTY</t>
-  </si>
-  <si>
-    <t>S_INFOTYPE_TEXT</t>
-  </si>
-  <si>
-    <t>INFTY,SUBTY,ENDDA,BEGDA</t>
-  </si>
-  <si>
-    <t>S_HRP1001</t>
+    <t>material</t>
+  </si>
+  <si>
+    <t>S_MARA</t>
+  </si>
+  <si>
+    <t>S_MAKT</t>
+  </si>
+  <si>
+    <t>S_MARM</t>
+  </si>
+  <si>
+    <t>S_MEAN</t>
+  </si>
+  <si>
+    <t>S_MVKE</t>
+  </si>
+  <si>
+    <t>S_MLAN</t>
+  </si>
+  <si>
+    <t>S_MARC</t>
+  </si>
+  <si>
+    <t>S_MARD</t>
+  </si>
+  <si>
+    <t>S_MRP_AREA</t>
+  </si>
+  <si>
+    <t>S_MLGN</t>
+  </si>
+  <si>
+    <t>S_MLGT</t>
+  </si>
+  <si>
+    <t>S_MBEW</t>
+  </si>
+  <si>
+    <t>S_MBEW_CURRENT</t>
+  </si>
+  <si>
+    <t>S_MBEW_FUTURE</t>
+  </si>
+  <si>
+    <t>SAPAPO_MATLSP</t>
+  </si>
+  <si>
+    <t>MARC</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -148,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,13 +165,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -476,20 +491,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,188 +521,213 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C6" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C8" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C10" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C12" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C13" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C14" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C15" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/table_config.xlsx
+++ b/config/table_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -29,6 +29,180 @@
   </si>
   <si>
     <t>COLUMN_ORDER</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>S_SUPPL_GEN</t>
+  </si>
+  <si>
+    <t>LIFNR, BU_GROUP, KTOKK, NAME_FIRST, NAME_FIRST_P, NAME_LAST_P, BPEXT, STREET, POST_CODE1, CITY1, COUNTRY, REGION, LANGU_CORR, TELNR_LONG, SMTP_ADDR</t>
+  </si>
+  <si>
+    <t>S_SUPPL_ADDR</t>
+  </si>
+  <si>
+    <t>LIFNR</t>
+  </si>
+  <si>
+    <t>S_SUPPL_COMPANY</t>
+  </si>
+  <si>
+    <t>LIFNR,BUKRS,AKONT,ZTERM1,ZWELS_01</t>
+  </si>
+  <si>
+    <t>S_SUPPL_PURCHASING</t>
+  </si>
+  <si>
+    <t>LIFNR,EKORG,WAERS,ZTERM,INCO1,INCO2,KALKS,VSBED,WEBRE,KZAUT,BSTAE,KZRET</t>
+  </si>
+  <si>
+    <t>S_SUPP_BANK</t>
+  </si>
+  <si>
+    <t>LIFNR,BANKS,BANKL,BANKN,IBAN,BKONT,BKREF,KOINH,EBPP_ACCNAME</t>
+  </si>
+  <si>
+    <t>S_SUPPL_PARTNER</t>
+  </si>
+  <si>
+    <t>LIFNR,EKORG,PARVW,LIFN2,DEFPA</t>
+  </si>
+  <si>
+    <t>S_SUPPL_TAXNUMBERS</t>
+  </si>
+  <si>
+    <t>TAXTYPE,TAXNUM</t>
+  </si>
+  <si>
+    <t>S_SUPPL_WITH_TAX</t>
+  </si>
+  <si>
+    <t>LIFNR,BUKRS</t>
+  </si>
+  <si>
+    <t>S_LFA1_TEXT</t>
+  </si>
+  <si>
+    <t>LIFNR,TDSPRAS</t>
+  </si>
+  <si>
+    <t>S_LFM1_TEXT</t>
+  </si>
+  <si>
+    <t>S_ROLES</t>
+  </si>
+  <si>
+    <t>LIFNR,BP_ROLE</t>
+  </si>
+  <si>
+    <t>S_ADDR_USAGE</t>
+  </si>
+  <si>
+    <t>LIFNR,ADR_KIND</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>S_EQUI</t>
+  </si>
+  <si>
+    <t>EQUNR,NRANGE_IND,EQTYP,DATAB,EQKTX,BRGEW,GEWEI,MATNR,GERNR</t>
+  </si>
+  <si>
+    <t>S_IHPA</t>
+  </si>
+  <si>
+    <t>EQUNR,PARVW</t>
+  </si>
+  <si>
+    <t>S_TEXTS_EQUI</t>
+  </si>
+  <si>
+    <t>EQUNR,SPRAS,TEXT_DESCR</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>S_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>PERNR</t>
+  </si>
+  <si>
+    <t>S_PA0000</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,MASSN,MASSG,STAT2</t>
+  </si>
+  <si>
+    <t>S_PA0001</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,BUKRS,WERKS,VDSK1,BTRTL,KOSTL,KOKRS,PERSG,PERSK,ORGEH,OTYPE,MSTBR</t>
+  </si>
+  <si>
+    <t>S_PA0002</t>
+  </si>
+  <si>
+    <t>PERNR,ENDDA,BEGDA,INITS,NACHN,NACH2,VORNA,TITEL,MIDNM,SPRSL</t>
+  </si>
+  <si>
+    <t>S_PA0006</t>
+  </si>
+  <si>
+    <t>SUBTY,ENDDA,BEGDA,ANSSA,STRAS,ORT01,ORT02,PSTLZ,LAND1,LOCAT,ADR03,ADR04,STATE,HSNMR,BLDNG,FLOOR,STRDS,COUNC,RCTVC,COM01,NUM01,COM02,NUM02,COM03,NUM03,COM04,NUM04,COM05,NUM05,COM06,NUM06</t>
+  </si>
+  <si>
+    <t>S_PA0105</t>
+  </si>
+  <si>
+    <t>PERNR,SUBTY,ENDDA,BEGDA,USRTY</t>
+  </si>
+  <si>
+    <t>S_INFOTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>INFTY,SUBTY,ENDDA,BEGDA</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>S_CUST_GEN</t>
+  </si>
+  <si>
+    <t>S_CUST_SALES_DATA</t>
+  </si>
+  <si>
+    <t>S_CUST_SALES_PARTNER</t>
+  </si>
+  <si>
+    <t>S_CUST_COMPANY</t>
+  </si>
+  <si>
+    <t>S_CUST_BANK_DATA</t>
+  </si>
+  <si>
+    <t>S_CUST_CC_DATA</t>
+  </si>
+  <si>
+    <t>S_CUST_INDUSTRY</t>
+  </si>
+  <si>
+    <t>S_CUST_TAXCLASS</t>
+  </si>
+  <si>
+    <t>S_CUST_TAXNUMBERS</t>
+  </si>
+  <si>
+    <t>S_CUST_IDENT</t>
+  </si>
+  <si>
+    <t>S_CUST_CONT</t>
   </si>
   <si>
     <t>material</t>
@@ -87,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,12 +279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -157,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,19 +333,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -491,20 +653,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="141.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="141.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,213 +683,784 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
         <v>17</v>
       </c>
-      <c r="C13" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>19</v>
       </c>
-      <c r="C15" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
         <v>20</v>
       </c>
-      <c r="C16" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
         <v>21</v>
       </c>
-      <c r="C17" s="5">
-        <v>20000</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>29</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>33</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>37</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>38</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>40</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>41</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>42</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>43</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>44</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>45</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>46</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>47</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>48</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>49</v>
+      </c>
+      <c r="E50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
